--- a/output/StructureDefinition-lrc-lab-report.xlsx
+++ b/output/StructureDefinition-lrc-lab-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T18:05:24+02:00</t>
+    <t>2024-02-22T18:39:46+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-lrc-lab-report.xlsx
+++ b/output/StructureDefinition-lrc-lab-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T18:39:46+02:00</t>
+    <t>2024-02-27T18:05:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-lrc-lab-report.xlsx
+++ b/output/StructureDefinition-lrc-lab-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T18:05:15+02:00</t>
+    <t>2024-03-03T08:59:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-lrc-lab-report.xlsx
+++ b/output/StructureDefinition-lrc-lab-report.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://outburn.co.il/fhir/oncology/StructureDefinition/lrc-lab-report</t>
+    <t>http://ig.fhir-il-community.org/LRC/StructureDefinition/lrc-lab-report</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-03T08:59:15+02:00</t>
+    <t>2024-03-03T10:40:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -731,7 +731,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://outburn.co.il/fhir/oncology/StructureDefinition/lrc-referral-group)
+    <t xml:space="preserve">Reference(http://ig.fhir-il-community.org/LRC/StructureDefinition/lrc-referral-group)
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-lrc-lab-report.xlsx
+++ b/output/StructureDefinition-lrc-lab-report.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-03T10:40:33+02:00</t>
+    <t>2024-03-04T15:01:53+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Outburn LTD.</t>
+    <t>FHIR-il community</t>
   </si>
   <si>
     <t>Contact</t>
@@ -996,7 +996,7 @@
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://hl7.org/fhir/ValueSet/observation-codes"/&gt;
+  &lt;system value="http://loinc.org"/&gt;
   &lt;code value="11502-2"/&gt;
 &lt;/valueCoding&gt;</t>
   </si>
